--- a/INTLINE/data/578/NESDC/QGDP/Table 5Q_historical.xlsx
+++ b/INTLINE/data/578/NESDC/QGDP/Table 5Q_historical.xlsx
@@ -1,435 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 5" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 5" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Non- Agriculture</t>
-  </si>
-  <si>
-    <t>Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Manu- facturing</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Wholesale and Retail Trade, Repair of Vehicles and Personal and Household Goods</t>
-  </si>
-  <si>
-    <t>Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>Public Administration and Defence; Compulsory Social Security</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Health and Social Work</t>
-  </si>
-  <si>
-    <t>Private Household with Employed Persons</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -444,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -463,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -760,4995 +353,5261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:DN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:118">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:118">
-      <c r="A2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>60335</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>61516</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>71017</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>68892</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>67785</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>71495</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>87076</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>89958</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>97557</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>98261</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>94625</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>92809</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>100130</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>107137</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>106996</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>105723</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>99612</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>103770</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>107472</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>113153</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>124839</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>113629</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>113373</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>125548</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>112441</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>106527</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>104459</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>103020</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>104037</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>109224</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>110357</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>107980</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>108730</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>113394</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>115876</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>119282</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>123514</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>127839</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>126951</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>123636</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>144637</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>147540</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>152240</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>150665</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>151248</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>155817</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>165338</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>169966</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>161172</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>157163</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>186535</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>190010</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>200147</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>190865</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>197716</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>200709</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>206095</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>204813</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>205953</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>227943</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>235078</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>253459</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>255653</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>240421</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>226190</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>236271</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>236169</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>248670</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>271381</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>288109</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>295408</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>287607</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>337492</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>333305</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>330207</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>313958</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>336806</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>340755</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>361108</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>376650</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>363713</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>356928</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>368821</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>369943</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>351474</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>342026</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>320575</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>322262</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>314926</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>300763</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>304173</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>303163</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>293283</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>303699</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>315954</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>328020</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>336871</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>326765</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>322350</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>320714</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>345810</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>346897</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>330614</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>322819</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>344206</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>352639</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>344588</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>333627</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>327800</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>328943</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>348213</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>355304</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>346986</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>351183</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>339812</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>342216</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>372697</v>
       </c>
     </row>
-    <row r="3" spans="1:118">
-      <c r="A3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Non- Agriculture</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>699710</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>728632</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>781941</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>793809</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>815550</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>830591</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>840594</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>885387</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>923099</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>953906</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>966528</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>991833</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>996072</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>1066780</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>1078620</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>1077696</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>1032289</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>1080198</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>1092578</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>1077850</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>1083203</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>1041886</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>1042760</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>1049018</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>1061469</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>1068775</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>1105560</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>1128322</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>1133400</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>1141407</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>1161792</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>1202622</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>1201022</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>1228625</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>1228574</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>1228067</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>1271485</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>1306961</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>1326111</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>1365626</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>1391987</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>1406016</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>1443384</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>1482108</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>1501967</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>1559340</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>1593269</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>1657707</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>1661475</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>1704217</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>1755294</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>1796797</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>1867432</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>1890761</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>1916360</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>1939368</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>2001976</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>2013752</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>2071015</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>2146853</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>2156626</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>2222350</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>2258212</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>2094063</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>2073080</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>2131170</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>2207577</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>2308232</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>2401459</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>2394073</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>2420937</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>2454294</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>2532860</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>2517536</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>2588466</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>2349773</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>2616870</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>2703806</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>2761993</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>2848974</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>2836168</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>2843076</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>2879550</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>2882060</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>2899649</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>2965026</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>2995169</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>3023813</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>3059462</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>3098652</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>3162982</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>3190055</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>3256144</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>3326763</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>3363386</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>3393708</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>3448520</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>3509391</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>3587781</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>3626437</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>3664211</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>3748544</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>3799895</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>3805444</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>3835513</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>3910377</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>3911548</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>3856398</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>3770731</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>3304970</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>3587427</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>3600595</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>3666993</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>3676711</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>3662962</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>3786382</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>3886385</v>
       </c>
     </row>
-    <row r="4" spans="1:118">
-      <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>10620</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>12164</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>13139</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>12449</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>12377</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>13286</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>13969</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>14320</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>14890</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>14250</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>13965</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>14476</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>17255</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>18022</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>18207</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>18018</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>18809</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>20568</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>23540</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>24846</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>23553</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>21655</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>23413</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>20650</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>20170</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>21423</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>22583</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>26585</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>27787</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>28299</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>29473</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>33367</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>30116</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>33859</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>33067</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>30922</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>32643</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>34436</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>35204</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>34759</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>37853</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>38003</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>38949</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>40611</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>40989</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>41903</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>44899</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>47733</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>48290</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>49602</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>61010</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>62997</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>67122</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>66865</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>66638</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>64204</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>68872</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>69210</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>69727</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>78781</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>79836</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>88364</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>91736</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>69616</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>72268</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>76338</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>86211</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>91755</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>93039</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>91577</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>89778</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>92577</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>96388</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>101995</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>99368</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>102583</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>111316</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>118849</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>123947</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>128926</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>125366</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>121409</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>123201</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>126532</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>127378</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>126475</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>123118</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>118536</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>107344</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>111497</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>110210</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>102130</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>100487</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>102307</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>99704</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>97072</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>100460</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>92924</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>93472</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>99229</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>98888</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>101644</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>107169</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>109214</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>99987</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>106974</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>103074</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>101997</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>92248</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>70522</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>86044</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>77018</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>84216</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>91949</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>90183</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>85408</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>92194</v>
       </c>
     </row>
-    <row r="5" spans="1:118">
-      <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Manu- facturing</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>204588</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>213776</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>220341</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>216050</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>240904</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>231227</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>236042</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>247069</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>262410</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>274958</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>283056</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>285291</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>287972</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>299343</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>301551</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>301354</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>304621</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>308639</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>319496</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>313080</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>330311</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>316880</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>311105</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>315861</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>321959</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>328631</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>344366</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>354112</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>344739</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>357440</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>365471</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>371501</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>366606</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>376490</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>373964</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>371195</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>382321</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>402802</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>422622</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>439850</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>456572</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>462704</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>466178</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>485032</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>487749</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>497229</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>517016</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>547508</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>537750</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>556053</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>572399</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>593261</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>624741</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>629167</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>632761</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>650208</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>671632</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>671616</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>691772</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>745734</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>733510</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>759834</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>782091</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>693598</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>656018</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>687032</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>725551</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>788690</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>840828</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>833829</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>833388</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>834480</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>867821</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>840990</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>868271</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>688526</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>814096</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>849950</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>870057</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>914252</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>879154</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>881002</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>893192</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>899974</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>896122</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>921440</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>915380</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>908879</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>926026</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>925079</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>954773</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>950062</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>966215</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>991042</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>993547</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>1002552</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>1022438</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>1034056</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>1056963</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>1061827</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>1064728</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>1091055</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>1107963</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>1103816</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>1090666</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>1098388</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>1082845</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>1055125</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>1060915</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>893909</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>996373</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>1029580</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>1078899</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>1109400</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>1043448</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>1137602</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>1163041</v>
       </c>
     </row>
-    <row r="6" spans="1:118">
-      <c r="A6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>51397</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>56198</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>58766</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>55267</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>63753</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>66338</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>66426</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>73428</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>73641</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>74652</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>75313</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>83907</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>85094</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>86797</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>80916</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>98957</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>65138</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>70836</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>70799</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>57515</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>51794</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>45352</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>45301</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>44486</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>39014</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>46255</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>42616</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>41301</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>43328</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>37869</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>36156</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>35084</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>39466</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>36015</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>39932</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>39781</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>41859</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>43226</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>40598</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>40853</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>40793</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>43840</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>45451</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>45465</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>46153</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>47593</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>49697</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>54941</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>55001</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>55373</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>57492</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>59118</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>60977</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>61722</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>61553</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>60488</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>63496</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>63961</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>66434</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>69896</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>67302</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>68471</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>67877</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>61600</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>64572</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>66952</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>68290</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>71554</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>73233</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>79324</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>73380</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>76889</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>75354</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>73985</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>77563</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>79525</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>81359</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>82183</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>87283</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>90485</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>89082</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>86739</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>85766</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>82935</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>79655</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>84899</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>86767</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>86382</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>92334</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>94350</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>93579</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>101187</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>99510</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>101265</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>98094</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>102708</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>101160</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>96674</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>97660</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>99535</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>103024</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>100671</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>101958</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>105001</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>107174</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>104445</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>103879</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>103270</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>96936</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>109387</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>111994</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>103383</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>111205</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>113834</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>108284</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>105381</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>107025</v>
       </c>
     </row>
-    <row r="7" spans="1:118">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Vehicles and Personal and Household Goods</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>129115</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>134801</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>161902</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>160322</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>157485</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>158850</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>166287</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>177927</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>183167</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>182786</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>183867</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>187423</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>187887</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>208043</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>207202</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>204358</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>206492</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>211646</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>213480</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>215355</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>209541</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>204371</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>202348</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>200921</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>216134</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>199101</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>205077</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>205765</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>208040</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>208784</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>212753</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>216767</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>220434</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>221835</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>220067</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>220192</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>223296</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>224165</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>224649</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>233598</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>231751</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>234254</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>237969</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>245119</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>248748</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>255179</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>259659</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>265322</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>268248</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>273766</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>277829</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>281474</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>290229</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>293680</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>295416</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>299720</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>308002</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>311349</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>322114</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>323916</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>326444</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>335700</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>343622</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>331308</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>341697</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>340561</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>342944</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>355623</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>362589</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>379702</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>385007</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>389521</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>388106</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>388575</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>401548</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>392153</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>409348</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>428966</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>440752</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>430418</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>445538</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>430113</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>423775</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>424570</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>439729</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>446340</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>457313</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>467422</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>468392</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>486038</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>495124</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>511062</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>522390</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>537864</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>556027</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>565253</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>571488</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>586229</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>604451</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>612780</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>620125</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>642486</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>657122</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>658433</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>667770</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>687770</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>694942</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>695524</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>699401</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>613658</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>659534</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>673045</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>679717</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>650908</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>679606</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>689366</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>696177</v>
       </c>
     </row>
-    <row r="8" spans="1:118">
-      <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Accommodation and food service activities</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>32492</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>32755</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>34063</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>34492</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>34044</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>34512</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>35263</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>36382</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>38103</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>38819</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>39953</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>41021</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>41073</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>44854</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>43358</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>43837</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>43266</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>44601</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>42428</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>42022</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>42075</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>42474</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>43350</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>43228</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>45722</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>45081</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>46369</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>47608</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>48492</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>49101</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>50128</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>50968</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>51744</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>52118</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>51894</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>51908</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>54457</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>53941</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>53376</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>54332</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>55930</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>46817</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>53943</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>56667</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>56432</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>58135</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>58533</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>56968</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>53538</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>57878</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>60023</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>60220</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>61495</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>63746</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>64634</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>65914</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>68201</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>68118</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>68978</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>72858</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>76327</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>76918</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>75864</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>70151</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>67872</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>70844</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>70668</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>76117</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>77904</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>71365</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>78549</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>83883</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>86171</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>89029</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>91874</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>82759</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>95898</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>102475</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>104296</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>110642</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>112680</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>116438</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>122038</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>122311</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>117440</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>119119</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>125987</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>135920</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>147527</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>152221</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>151087</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>150057</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>168237</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>174629</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>180932</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>173049</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>188556</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>201165</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>212584</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>213164</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>225789</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>235498</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>231886</v>
       </c>
-      <c r="DA8">
+      <c r="DA8" t="n">
         <v>226167</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" t="n">
         <v>251832</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" t="n">
         <v>262522</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" t="n">
         <v>264987</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" t="n">
         <v>249414</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" t="n">
         <v>187770</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" t="n">
         <v>121813</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" t="n">
         <v>146862</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" t="n">
         <v>142195</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" t="n">
         <v>118538</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" t="n">
         <v>141151</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" t="n">
         <v>120838</v>
       </c>
-      <c r="DM8">
+      <c r="DM8" t="n">
         <v>133531</v>
       </c>
-      <c r="DN8">
+      <c r="DN8" t="n">
         <v>161580</v>
       </c>
     </row>
-    <row r="9" spans="1:118">
-      <c r="A9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Financial and insurance activities</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>65175</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>64490</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>71408</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>71806</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>79507</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>82858</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>79998</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>83981</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>82599</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>85464</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>82723</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>88133</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>89216</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>91231</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>96391</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>91989</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>76515</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>80429</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>68184</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>76240</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>61911</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>54810</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>51402</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>44865</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>41873</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>41232</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>43554</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>46235</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>53884</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>43935</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>46518</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>49228</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>57061</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>58925</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>53489</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>62155</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>67755</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="n">
         <v>69410</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="n">
         <v>69422</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" t="n">
         <v>69954</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" t="n">
         <v>72797</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" t="n">
         <v>76532</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" t="n">
         <v>83437</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>84254</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>84157</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>92054</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>92751</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>98287</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>100699</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>102606</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>106104</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>107135</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>109583</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>110753</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>112457</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>115471</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>116772</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>121563</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>127181</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>127014</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>129728</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>130720</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>132560</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>130229</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>131644</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>137739</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>140445</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>144243</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>143486</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>142890</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>143956</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>150810</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>154848</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>158811</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>166010</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>165094</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>172972</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>182431</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>190574</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>199329</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>209559</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>215017</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>220904</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>226256</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>233574</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>237506</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>244480</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>245573</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>256110</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>255913</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>261026</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>264748</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>273256</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>278203</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>281273</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>288229</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>288088</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>294378</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>296309</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>302507</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>304934</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>312887</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>310725</v>
       </c>
-      <c r="DA9">
+      <c r="DA9" t="n">
         <v>312311</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" t="n">
         <v>310199</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" t="n">
         <v>317755</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" t="n">
         <v>320433</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" t="n">
         <v>320002</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" t="n">
         <v>324539</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" t="n">
         <v>315458</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" t="n">
         <v>323482</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" t="n">
         <v>326284</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" t="n">
         <v>331462</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" t="n">
         <v>327797</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" t="n">
         <v>337866</v>
       </c>
-      <c r="DM9">
+      <c r="DM9" t="n">
         <v>342588</v>
       </c>
-      <c r="DN9">
+      <c r="DN9" t="n">
         <v>346581</v>
       </c>
     </row>
-    <row r="10" spans="1:118">
-      <c r="A10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Public Administration and Defence; Compulsory Social Security</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>30442</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>32292</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>34281</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>38021</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>38641</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>38834</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>37336</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>32874</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>47281</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>46426</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>48591</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>49355</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>50273</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>51113</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>53286</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>55336</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>55685</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>57870</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>58948</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>59761</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>62401</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>63385</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>65701</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>69466</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>68072</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>70438</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>71742</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>72655</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>72999</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>73809</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>75106</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>77877</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>76900</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>78260</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>80168</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>82107</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>84282</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>85149</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>84639</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>86685</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>87317</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>89480</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>91921</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>91372</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>91910</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>100917</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>100361</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>100653</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>106853</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>107983</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>108548</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>114833</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>115749</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>120339</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>122366</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>124231</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>129921</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>130343</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>134345</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>135068</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>138581</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>143931</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>143607</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>151128</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>146745</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>150200</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>153195</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>156017</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>158021</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>156973</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>161317</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>163502</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>166516</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>170195</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>174740</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>169178</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>182332</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>182060</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>180059</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>187639</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>187051</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>192095</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>195062</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>191317</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>196163</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>199637</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>201481</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>205016</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>202073</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>210706</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>215263</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>215090</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>217204</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>217586</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>221463</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>225421</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>225391</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>228937</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>229672</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>233582</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>237187</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>238265</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>239245</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" t="n">
         <v>242633</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" t="n">
         <v>245028</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" t="n">
         <v>247503</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" t="n">
         <v>250766</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" t="n">
         <v>250081</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" t="n">
         <v>254021</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" t="n">
         <v>255872</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" t="n">
         <v>258232</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" t="n">
         <v>260032</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" t="n">
         <v>262436</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" t="n">
         <v>263555</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" t="n">
         <v>263798</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" t="n">
         <v>265241</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" t="n">
         <v>258407</v>
       </c>
     </row>
-    <row r="11" spans="1:118">
-      <c r="A11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>26548</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>28239</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>29077</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>30029</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>29967</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>30844</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>31955</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>31705</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>37551</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>35122</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>36380</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>36678</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>38207</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>39242</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>40070</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>41085</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>41364</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>43545</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>44272</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>44237</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>46265</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>46190</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>47630</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>52161</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>47467</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>49492</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>49706</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>49659</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>50595</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>50117</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>50681</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>51948</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>50949</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>51795</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>53101</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>53760</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>53428</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>54019</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>53598</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>53796</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>54719</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>55945</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>57748</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>59371</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>59869</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>67647</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>66456</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>67826</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>70985</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>71629</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>71379</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>75337</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>76721</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>80348</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>80653</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>81259</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>85657</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>85900</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>89215</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>88698</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>88780</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>92559</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>92921</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>97791</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>94769</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>96434</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>100667</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>101691</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>103165</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>102341</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>104875</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>107520</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>109024</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>112361</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>115401</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>117439</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>124707</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>124384</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>123683</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>130706</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>127372</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>132598</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>135432</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>132450</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>139201</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>140392</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>141582</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>143868</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>143594</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>146838</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>151998</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>151624</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>151304</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>151275</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>154377</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>155516</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>154310</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>156971</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>157799</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>161194</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>161923</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>161877</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>162025</v>
       </c>
-      <c r="DA11">
+      <c r="DA11" t="n">
         <v>166035</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" t="n">
         <v>167808</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" t="n">
         <v>169351</v>
       </c>
-      <c r="DD11">
+      <c r="DD11" t="n">
         <v>166963</v>
       </c>
-      <c r="DE11">
+      <c r="DE11" t="n">
         <v>168443</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" t="n">
         <v>172073</v>
       </c>
-      <c r="DG11">
+      <c r="DG11" t="n">
         <v>171323</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" t="n">
         <v>173559</v>
       </c>
-      <c r="DI11">
+      <c r="DI11" t="n">
         <v>173834</v>
       </c>
-      <c r="DJ11">
+      <c r="DJ11" t="n">
         <v>175788</v>
       </c>
-      <c r="DK11">
+      <c r="DK11" t="n">
         <v>175632</v>
       </c>
-      <c r="DL11">
+      <c r="DL11" t="n">
         <v>176723</v>
       </c>
-      <c r="DM11">
+      <c r="DM11" t="n">
         <v>177611</v>
       </c>
-      <c r="DN11">
+      <c r="DN11" t="n">
         <v>180086</v>
       </c>
     </row>
-    <row r="12" spans="1:118">
-      <c r="A12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Health and Social Work</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>14033</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14016</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>14362</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>15553</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>15365</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>16027</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>16034</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>16574</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>18209</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>18058</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>18253</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>17980</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>19224</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>20058</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>20795</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>20663</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>20010</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>21482</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>21346</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>21442</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>21232</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>22215</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>22746</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>23437</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>23662</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>23808</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>24600</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>24564</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>24836</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>24312</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>25779</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>26265</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>26510</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>26820</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>27873</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>28650</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>29449</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>29637</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>29646</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>30276</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>29398</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>29644</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>30481</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>31402</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>31993</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>33878</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>34417</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>35413</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>35791</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>35549</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>36279</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>37631</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>38311</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>38707</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>39062</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>38992</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>39809</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>40485</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>41219</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>41778</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>42297</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>43421</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>43661</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>43171</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>46850</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>47187</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>49026</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>50436</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>51499</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>51054</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>51412</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>52501</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>53273</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" t="n">
         <v>54310</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" t="n">
         <v>56219</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" t="n">
         <v>55368</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" t="n">
         <v>58028</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" t="n">
         <v>58595</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" t="n">
         <v>57938</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" t="n">
         <v>61033</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" t="n">
         <v>60469</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" t="n">
         <v>63849</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" t="n">
         <v>64881</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" t="n">
         <v>61516</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="n">
         <v>67190</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" t="n">
         <v>67414</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" t="n">
         <v>68211</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" t="n">
         <v>67443</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" t="n">
         <v>69307</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" t="n">
         <v>70265</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" t="n">
         <v>72569</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" t="n">
         <v>75704</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" t="n">
         <v>74511</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" t="n">
         <v>75893</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" t="n">
         <v>77205</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" t="n">
         <v>79557</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" t="n">
         <v>79122</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" t="n">
         <v>80420</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" t="n">
         <v>86160</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" t="n">
         <v>82490</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" t="n">
         <v>87376</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" t="n">
         <v>89008</v>
       </c>
-      <c r="CZ12">
+      <c r="CZ12" t="n">
         <v>87968</v>
       </c>
-      <c r="DA12">
+      <c r="DA12" t="n">
         <v>87073</v>
       </c>
-      <c r="DB12">
+      <c r="DB12" t="n">
         <v>90832</v>
       </c>
-      <c r="DC12">
+      <c r="DC12" t="n">
         <v>92534</v>
       </c>
-      <c r="DD12">
+      <c r="DD12" t="n">
         <v>93680</v>
       </c>
-      <c r="DE12">
+      <c r="DE12" t="n">
         <v>93457</v>
       </c>
-      <c r="DF12">
+      <c r="DF12" t="n">
         <v>95053</v>
       </c>
-      <c r="DG12">
+      <c r="DG12" t="n">
         <v>95194</v>
       </c>
-      <c r="DH12">
+      <c r="DH12" t="n">
         <v>97447</v>
       </c>
-      <c r="DI12">
+      <c r="DI12" t="n">
         <v>99576</v>
       </c>
-      <c r="DJ12">
+      <c r="DJ12" t="n">
         <v>98603</v>
       </c>
-      <c r="DK12">
+      <c r="DK12" t="n">
         <v>100233</v>
       </c>
-      <c r="DL12">
+      <c r="DL12" t="n">
         <v>103530</v>
       </c>
-      <c r="DM12">
+      <c r="DM12" t="n">
         <v>106586</v>
       </c>
-      <c r="DN12">
+      <c r="DN12" t="n">
         <v>104517</v>
       </c>
     </row>
-    <row r="13" spans="1:118">
-      <c r="A13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Private Household with Employed Persons</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>2706</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>2694</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>2781</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>2836</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>2858</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>2908</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>3005</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>3107</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>3183</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>3210</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>3203</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>3207</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>3266</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>3389</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>3464</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>3574</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>3673</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>3740</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>3710</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>3707</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>3769</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>3843</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>3888</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>3857</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>3764</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>3765</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>3813</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>3923</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>4037</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>4174</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>4277</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>4344</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>4503</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>4549</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="n">
         <v>4544</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="n">
         <v>4570</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="n">
         <v>4455</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>4354</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
         <v>4381</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" t="n">
         <v>4406</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="n">
         <v>4834</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" t="n">
         <v>4869</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" t="n">
         <v>4916</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>4922</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>4778</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>4677</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>4604</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>4538</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>4528</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>4507</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>4402</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>4227</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>4132</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>4153</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>4169</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>4222</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>4319</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>4422</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>4587</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>4682</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>4351</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>4160</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>4074</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>4101</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>4282</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>4306</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>4379</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>4419</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>4392</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>4400</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>4461</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" t="n">
         <v>4668</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" t="n">
         <v>4894</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" t="n">
         <v>5071</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" t="n">
         <v>5180</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" t="n">
         <v>5364</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" t="n">
         <v>5582</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" t="n">
         <v>5730</v>
       </c>
-      <c r="CB13">
+      <c r="CB13" t="n">
         <v>5649</v>
       </c>
-      <c r="CC13">
+      <c r="CC13" t="n">
         <v>5651</v>
       </c>
-      <c r="CD13">
+      <c r="CD13" t="n">
         <v>5700</v>
       </c>
-      <c r="CE13">
+      <c r="CE13" t="n">
         <v>5778</v>
       </c>
-      <c r="CF13">
+      <c r="CF13" t="n">
         <v>5893</v>
       </c>
-      <c r="CG13">
+      <c r="CG13" t="n">
         <v>5902</v>
       </c>
-      <c r="CH13">
+      <c r="CH13" t="n">
         <v>5998</v>
       </c>
-      <c r="CI13">
+      <c r="CI13" t="n">
         <v>6121</v>
       </c>
-      <c r="CJ13">
+      <c r="CJ13" t="n">
         <v>6229</v>
       </c>
-      <c r="CK13">
+      <c r="CK13" t="n">
         <v>6395</v>
       </c>
-      <c r="CL13">
+      <c r="CL13" t="n">
         <v>6688</v>
       </c>
-      <c r="CM13">
+      <c r="CM13" t="n">
         <v>6887</v>
       </c>
-      <c r="CN13">
+      <c r="CN13" t="n">
         <v>7069</v>
       </c>
-      <c r="CO13">
+      <c r="CO13" t="n">
         <v>7129</v>
       </c>
-      <c r="CP13">
+      <c r="CP13" t="n">
         <v>6958</v>
       </c>
-      <c r="CQ13">
+      <c r="CQ13" t="n">
         <v>6883</v>
       </c>
-      <c r="CR13">
+      <c r="CR13" t="n">
         <v>7278</v>
       </c>
-      <c r="CS13">
+      <c r="CS13" t="n">
         <v>6968</v>
       </c>
-      <c r="CT13">
+      <c r="CT13" t="n">
         <v>6829</v>
       </c>
-      <c r="CU13">
+      <c r="CU13" t="n">
         <v>6868</v>
       </c>
-      <c r="CV13">
+      <c r="CV13" t="n">
         <v>6884</v>
       </c>
-      <c r="CW13">
+      <c r="CW13" t="n">
         <v>6843</v>
       </c>
-      <c r="CX13">
+      <c r="CX13" t="n">
         <v>6880</v>
       </c>
-      <c r="CY13">
+      <c r="CY13" t="n">
         <v>6860</v>
       </c>
-      <c r="CZ13">
+      <c r="CZ13" t="n">
         <v>6773</v>
       </c>
-      <c r="DA13">
+      <c r="DA13" t="n">
         <v>6857</v>
       </c>
-      <c r="DB13">
+      <c r="DB13" t="n">
         <v>6999</v>
       </c>
-      <c r="DC13">
+      <c r="DC13" t="n">
         <v>7007</v>
       </c>
-      <c r="DD13">
+      <c r="DD13" t="n">
         <v>7033</v>
       </c>
-      <c r="DE13">
+      <c r="DE13" t="n">
         <v>7013</v>
       </c>
-      <c r="DF13">
+      <c r="DF13" t="n">
         <v>7321</v>
       </c>
-      <c r="DG13">
+      <c r="DG13" t="n">
         <v>6840</v>
       </c>
-      <c r="DH13">
+      <c r="DH13" t="n">
         <v>7350</v>
       </c>
-      <c r="DI13">
+      <c r="DI13" t="n">
         <v>7320</v>
       </c>
-      <c r="DJ13">
+      <c r="DJ13" t="n">
         <v>7208</v>
       </c>
-      <c r="DK13">
+      <c r="DK13" t="n">
         <v>7107</v>
       </c>
-      <c r="DL13">
+      <c r="DL13" t="n">
         <v>7143</v>
       </c>
-      <c r="DM13">
+      <c r="DM13" t="n">
         <v>7269</v>
       </c>
-      <c r="DN13">
+      <c r="DN13" t="n">
         <v>7191</v>
       </c>
     </row>
-    <row r="14" spans="1:118">
-      <c r="A14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>762795</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>790843</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>851244</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>859741</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>886948</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>902561</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>923958</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>975220</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>1025763</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>1050494</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>1058697</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>1081222</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>1101754</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>1172352</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>1183351</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>1180761</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>1137404</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>1182392</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>1199169</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>1190217</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>1213247</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>1152248</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>1153997</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>1179061</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>1177309</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>1173616</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>1211335</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>1227105</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>1239440</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>1250726</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>1273037</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>1306612</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>1310474</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>1343434</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>1344893</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>1346677</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>1394878</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>1435793</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
         <v>1452425</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" t="n">
         <v>1487615</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="n">
         <v>1535434</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" t="n">
         <v>1552914</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" t="n">
         <v>1593144</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="n">
         <v>1636642</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="n">
         <v>1651366</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" t="n">
         <v>1714839</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" t="n">
         <v>1756444</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="n">
         <v>1833121</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" t="n">
         <v>1820644</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" t="n">
         <v>1862689</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" t="n">
         <v>1937676</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" t="n">
         <v>1995326</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" t="n">
         <v>2064651</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" t="n">
         <v>2081173</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" t="n">
         <v>2109058</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" t="n">
         <v>2148979</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>2204810</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>2218873</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>2271292</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>2387495</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>2385720</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>2475374</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>2505163</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>2349275</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>2293009</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>2368884</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>2439183</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>2564390</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>2667876</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>2682282</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>2710629</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" t="n">
         <v>2747493</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" t="n">
         <v>2868909</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" t="n">
         <v>2847371</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" t="n">
         <v>2914386</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" t="n">
         <v>2672112</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" t="n">
         <v>2954989</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" t="n">
         <v>3040272</v>
       </c>
-      <c r="CB14">
+      <c r="CB14" t="n">
         <v>3118455</v>
       </c>
-      <c r="CC14">
+      <c r="CC14" t="n">
         <v>3235412</v>
       </c>
-      <c r="CD14">
+      <c r="CD14" t="n">
         <v>3201019</v>
       </c>
-      <c r="CE14">
+      <c r="CE14" t="n">
         <v>3195425</v>
       </c>
-      <c r="CF14">
+      <c r="CF14" t="n">
         <v>3242862</v>
       </c>
-      <c r="CG14">
+      <c r="CG14" t="n">
         <v>3262490</v>
       </c>
-      <c r="CH14">
+      <c r="CH14" t="n">
         <v>3250799</v>
       </c>
-      <c r="CI14">
+      <c r="CI14" t="n">
         <v>3305613</v>
       </c>
-      <c r="CJ14">
+      <c r="CJ14" t="n">
         <v>3315688</v>
       </c>
-      <c r="CK14">
+      <c r="CK14" t="n">
         <v>3346888</v>
       </c>
-      <c r="CL14">
+      <c r="CL14" t="n">
         <v>3374067</v>
       </c>
-      <c r="CM14">
+      <c r="CM14" t="n">
         <v>3400513</v>
       </c>
-      <c r="CN14">
+      <c r="CN14" t="n">
         <v>3469788</v>
       </c>
-      <c r="CO14">
+      <c r="CO14" t="n">
         <v>3489958</v>
       </c>
-      <c r="CP14">
+      <c r="CP14" t="n">
         <v>3548257</v>
       </c>
-      <c r="CQ14">
+      <c r="CQ14" t="n">
         <v>3632712</v>
       </c>
-      <c r="CR14">
+      <c r="CR14" t="n">
         <v>3679894</v>
       </c>
-      <c r="CS14">
+      <c r="CS14" t="n">
         <v>3721476</v>
       </c>
-      <c r="CT14">
+      <c r="CT14" t="n">
         <v>3785874</v>
       </c>
-      <c r="CU14">
+      <c r="CU14" t="n">
         <v>3837263</v>
       </c>
-      <c r="CV14">
+      <c r="CV14" t="n">
         <v>3911932</v>
       </c>
-      <c r="CW14">
+      <c r="CW14" t="n">
         <v>3944235</v>
       </c>
-      <c r="CX14">
+      <c r="CX14" t="n">
         <v>4010090</v>
       </c>
-      <c r="CY14">
+      <c r="CY14" t="n">
         <v>4096262</v>
       </c>
-      <c r="CZ14">
+      <c r="CZ14" t="n">
         <v>4133949</v>
       </c>
-      <c r="DA14">
+      <c r="DA14" t="n">
         <v>4125785</v>
       </c>
-      <c r="DB14">
+      <c r="DB14" t="n">
         <v>4177711</v>
       </c>
-      <c r="DC14">
+      <c r="DC14" t="n">
         <v>4262068</v>
       </c>
-      <c r="DD14">
+      <c r="DD14" t="n">
         <v>4261706</v>
       </c>
-      <c r="DE14">
+      <c r="DE14" t="n">
         <v>4188720</v>
       </c>
-      <c r="DF14">
+      <c r="DF14" t="n">
         <v>4094557</v>
       </c>
-      <c r="DG14">
+      <c r="DG14" t="n">
         <v>3632274</v>
       </c>
-      <c r="DH14">
+      <c r="DH14" t="n">
         <v>3938417</v>
       </c>
-      <c r="DI14">
+      <c r="DI14" t="n">
         <v>3957971</v>
       </c>
-      <c r="DJ14">
+      <c r="DJ14" t="n">
         <v>4010608</v>
       </c>
-      <c r="DK14">
+      <c r="DK14" t="n">
         <v>4025348</v>
       </c>
-      <c r="DL14">
+      <c r="DL14" t="n">
         <v>4009384</v>
       </c>
-      <c r="DM14">
+      <c r="DM14" t="n">
         <v>4127448</v>
       </c>
-      <c r="DN14">
+      <c r="DN14" t="n">
         <v>4256394</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>